--- a/项目详细资料/项目时间表/时间表.xlsx
+++ b/项目详细资料/项目时间表/时间表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>上旬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,11 +34,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初步工作量 8个网页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留出半个月弄好一个框架再继续进行</t>
+    <t>晚会信息添加（管理）页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其余残枝末节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,11 +58,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面+忘记密码页面</t>
+    <t>登录页面,注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚会信息详情页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,38 +70,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推送页面1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送页面2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚会详细信息页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚会信息添加（管理）页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聊天室页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚会投票页面</t>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其余残枝末节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备材料</t>
+    <t>投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚会推送页面2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚会推送页面1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个部分都包括前台和后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1伍峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2工兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3张皓冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4姜长旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0段姐姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-PC端 1-web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,9 +169,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,80 +524,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
     <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
       <c r="C5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>1</v>
       </c>
@@ -569,33 +636,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>0</v>
       </c>
@@ -603,49 +679,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C20">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>1</v>
       </c>
